--- a/beadando/meresek.xlsx
+++ b/beadando/meresek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kill3\Desktop\ME_Parhuzamos_algoritmusok\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC020925-7345-41B1-A660-476A86A0C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A867A6EA-9B9C-499A-91C5-2089E61C1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E78452E2-15C8-49BE-83FD-F6EBBDBD61F9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Szekvenciális</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Python képszerkesztés</t>
   </si>
   <si>
-    <t>C KMP szövegkeresés</t>
-  </si>
-  <si>
     <t>Pthreads</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>single threaded</t>
+  </si>
+  <si>
+    <t>C szövegkeresés</t>
   </si>
 </sst>
 </file>
@@ -870,354 +870,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C KMP szövegkeresés</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="hu-HU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$Q$3:$Q$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Szekvenciális</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pthreads</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>openMP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$3:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.236267</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13492499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD03-4B88-9BAB-CF2720C41BCC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="80"/>
-        <c:overlap val="25"/>
-        <c:axId val="720107007"/>
-        <c:axId val="720108255"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="720107007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="720108255"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="720108255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="720107007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1504,6 +1156,348 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C szövegkeresés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Szekvenciális</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pthreads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.6990000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8390000000000005E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA33-47E5-B111-582B04FC4A1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1464776912"/>
+        <c:axId val="1464795632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1464776912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464795632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464795632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464776912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3708,23 +3702,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA27A97A-2D24-D7CC-86E7-1742B0B03B04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2130F15B-6EF6-97B9-1814-2140128F8D29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,23 +3738,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2130F15B-6EF6-97B9-1814-2140128F8D29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCB5BF4-B9A6-078F-9139-50BFF2292A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED657A0-62E1-4FD6-8BFF-32BBD0EAD99E}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,10 +4106,10 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -4135,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.236267</v>
+        <v>8.6990000000000001E-3</v>
       </c>
       <c r="W3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X3">
         <v>5.0650000000000001E-3</v>
@@ -4158,24 +4152,16 @@
         <v>0.16444049999999999</v>
       </c>
       <c r="Q4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>0.13492499999999999</v>
+        <v>7.8390000000000005E-3</v>
       </c>
       <c r="W4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X4">
         <v>4.5580000000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <v>0.11172</v>
       </c>
     </row>
   </sheetData>
